--- a/Test Station Part Number.xlsx
+++ b/Test Station Part Number.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willlee\Desktop\Manufacturing Issue\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willlee\PycharmProjects\MTBR_MTTRTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C78E0AF-AFA2-4A23-ADCB-8AC02B7E0EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210C17D7-EDEF-4FA4-9F45-3118CCCE894B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38085" yWindow="3240" windowWidth="25920" windowHeight="11385" activeTab="2" xr2:uid="{C8D79078-673C-4076-92CF-524F59FE4AED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C8D79078-673C-4076-92CF-524F59FE4AED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5256,7 +5256,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6E07799-03C2-498B-85AD-CE70AE06AA7C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6E07799-03C2-498B-85AD-CE70AE06AA7C}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B131" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0">
@@ -10150,11 +10150,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE134A4-DCB3-4E3F-8222-E5103FC2F9B6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10175,7 +10174,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>353</v>
       </c>
@@ -10208,7 +10207,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>283</v>
       </c>
@@ -10219,7 +10218,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>288</v>
       </c>
@@ -10230,7 +10229,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>309</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>285</v>
       </c>
@@ -10252,7 +10251,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>291</v>
       </c>
@@ -10263,7 +10262,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>306</v>
       </c>
@@ -10274,7 +10273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>315</v>
       </c>
@@ -10285,7 +10284,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>280</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>295</v>
       </c>
@@ -10329,7 +10328,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>314</v>
       </c>
@@ -10337,7 +10336,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>318</v>
       </c>
@@ -10345,7 +10344,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -10356,7 +10355,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -10367,7 +10366,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
@@ -10389,7 +10388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>321</v>
       </c>
@@ -10400,7 +10399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>330</v>
       </c>
@@ -10411,7 +10410,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
@@ -10433,7 +10432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -10444,7 +10443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -10455,7 +10454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -10466,7 +10465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -10488,7 +10487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
@@ -10499,7 +10498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>32</v>
       </c>
@@ -10510,7 +10509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -10521,7 +10520,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
@@ -10532,7 +10531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>35</v>
       </c>
@@ -10543,7 +10542,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>38</v>
       </c>
@@ -10554,7 +10553,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
@@ -10565,7 +10564,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>40</v>
       </c>
@@ -10576,7 +10575,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
@@ -10587,7 +10586,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>42</v>
       </c>
@@ -10598,7 +10597,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
@@ -10609,7 +10608,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
@@ -10620,7 +10619,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>45</v>
       </c>
@@ -10631,7 +10630,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>48</v>
       </c>
@@ -10642,7 +10641,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -10653,7 +10652,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>50</v>
       </c>
@@ -10664,7 +10663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -10686,7 +10685,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
@@ -10697,7 +10696,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>59</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>60</v>
       </c>
@@ -10719,7 +10718,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>63</v>
       </c>
@@ -10730,7 +10729,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>320</v>
       </c>
@@ -10741,7 +10740,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>64</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>67</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>68</v>
       </c>
@@ -10774,7 +10773,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>69</v>
       </c>
@@ -10785,7 +10784,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>72</v>
       </c>
@@ -10796,7 +10795,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>75</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>76</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>77</v>
       </c>
@@ -10829,7 +10828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>78</v>
       </c>
@@ -10840,7 +10839,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>81</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>84</v>
       </c>
@@ -10862,7 +10861,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>86</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>87</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>412</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>88</v>
       </c>
@@ -10906,7 +10905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>91</v>
       </c>
@@ -10917,7 +10916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>92</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>326</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>96</v>
       </c>
@@ -10950,7 +10949,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>99</v>
       </c>
@@ -10961,7 +10960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>102</v>
       </c>
@@ -10972,7 +10971,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>361</v>
       </c>
@@ -10983,7 +10982,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>105</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>108</v>
       </c>
@@ -11005,7 +11004,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>111</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>112</v>
       </c>
@@ -11027,7 +11026,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>113</v>
       </c>
@@ -11038,7 +11037,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>116</v>
       </c>
@@ -11049,7 +11048,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>117</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>118</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>119</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>120</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>123</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>124</v>
       </c>
@@ -11115,7 +11114,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>127</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>128</v>
       </c>
@@ -11137,7 +11136,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>131</v>
       </c>
@@ -11148,7 +11147,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>134</v>
       </c>
@@ -11159,7 +11158,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>135</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>137</v>
       </c>
@@ -11181,7 +11180,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>138</v>
       </c>
@@ -11189,7 +11188,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>141</v>
       </c>
@@ -11197,7 +11196,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>360</v>
       </c>
@@ -11205,7 +11204,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>144</v>
       </c>
@@ -11213,7 +11212,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>147</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>150</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>152</v>
       </c>
@@ -11243,7 +11242,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>155</v>
       </c>
@@ -11251,7 +11250,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>158</v>
       </c>
@@ -11262,7 +11261,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>413</v>
       </c>
@@ -11273,7 +11272,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>163</v>
       </c>
@@ -11284,7 +11283,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>165</v>
       </c>
@@ -11295,7 +11294,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>357</v>
       </c>
@@ -11306,7 +11305,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>328</v>
       </c>
@@ -11317,7 +11316,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>327</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>168</v>
       </c>
@@ -11336,7 +11335,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>346</v>
       </c>
@@ -11347,7 +11346,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>365</v>
       </c>
@@ -11355,7 +11354,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>171</v>
       </c>
@@ -11363,7 +11362,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>174</v>
       </c>
@@ -11374,7 +11373,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>177</v>
       </c>
@@ -11385,7 +11384,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>297</v>
       </c>
@@ -11396,7 +11395,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>180</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>183</v>
       </c>
@@ -11418,7 +11417,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>186</v>
       </c>
@@ -11429,7 +11428,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>189</v>
       </c>
@@ -11440,7 +11439,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>192</v>
       </c>
@@ -11448,7 +11447,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>325</v>
       </c>
@@ -11456,7 +11455,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>193</v>
       </c>
@@ -11464,7 +11463,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>196</v>
       </c>
@@ -11472,7 +11471,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>197</v>
       </c>
@@ -11480,7 +11479,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>200</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>202</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>205</v>
       </c>
@@ -11504,7 +11503,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>208</v>
       </c>
@@ -11512,7 +11511,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>211</v>
       </c>
@@ -11523,7 +11522,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>214</v>
       </c>
@@ -11534,7 +11533,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>217</v>
       </c>
@@ -11542,7 +11541,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>220</v>
       </c>
@@ -11553,7 +11552,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>223</v>
       </c>
@@ -11561,7 +11560,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>226</v>
       </c>
@@ -11572,7 +11571,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>227</v>
       </c>
@@ -11583,7 +11582,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>228</v>
       </c>
@@ -11594,7 +11593,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>293</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>229</v>
       </c>
@@ -11616,7 +11615,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>230</v>
       </c>
@@ -11649,7 +11648,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>237</v>
       </c>
@@ -11660,7 +11659,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>240</v>
       </c>
@@ -11671,7 +11670,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>241</v>
       </c>
@@ -11682,7 +11681,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>243</v>
       </c>
@@ -11693,7 +11692,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>244</v>
       </c>
@@ -11704,7 +11703,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>323</v>
       </c>
@@ -11726,7 +11725,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>246</v>
       </c>
@@ -11737,7 +11736,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>249</v>
       </c>
@@ -11748,7 +11747,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>250</v>
       </c>
@@ -11759,7 +11758,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>251</v>
       </c>
@@ -11770,7 +11769,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>252</v>
       </c>
@@ -11781,7 +11780,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>253</v>
       </c>
@@ -11792,7 +11791,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>256</v>
       </c>
@@ -11803,7 +11802,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>259</v>
       </c>
@@ -11814,7 +11813,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>260</v>
       </c>
@@ -11825,7 +11824,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>261</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>264</v>
       </c>
@@ -11847,7 +11846,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>267</v>
       </c>
@@ -11858,7 +11857,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>268</v>
       </c>
@@ -11869,7 +11868,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>271</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>401</v>
       </c>
@@ -11888,7 +11887,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>405</v>
       </c>
@@ -11900,13 +11899,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C164" xr:uid="{43A96A91-F78F-4434-99A4-7FF5BD35ED3D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="BU CONTROLLER"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C164" xr:uid="{43A96A91-F78F-4434-99A4-7FF5BD35ED3D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
